--- a/BASES/VW.xlsx
+++ b/BASES/VW.xlsx
@@ -1119,7 +1119,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="125.566094" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="126.995781" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
     <x:row r="2" spans="1:16">
       <x:c r="A2" s="0" t="s">
